--- a/TN042/ddct_ix.xlsx
+++ b/TN042/ddct_ix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,29 +465,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.014133066666666</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.741524066666667</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5509200666666665</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.531733333333335</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.6349063333333298</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.2803609999999992</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TN042/ddct_ix.xlsx
+++ b/TN042/ddct_ix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,29 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.014133066666666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.741524066666667</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5509200666666665</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.531733333333335</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.6349063333333298</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2803609999999992</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TN042/ddct_ix.xlsx
+++ b/TN042/ddct_ix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>dusp11_-dox</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ifnb_-dox</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>mx1_-dox</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>dusp11_+dox</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ifnb_+dox</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mx1_+dox</t>
+          <t>ddCT</t>
         </is>
       </c>
     </row>
@@ -469,22 +449,77 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dusp11_-dox</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1.014133066666666</v>
       </c>
-      <c r="C2" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ifnb_-dox</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1.741524066666667</v>
       </c>
-      <c r="D2" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mx1_-dox</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>0.5509200666666665</v>
       </c>
-      <c r="E2" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dusp11_+dox</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1.531733333333335</v>
       </c>
-      <c r="F2" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ifnb_+dox</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>-0.6349063333333298</v>
       </c>
-      <c r="G2" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mx1_+dox</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>-0.2803609999999992</v>
       </c>
     </row>
